--- a/data/test/GEP00009.xlsx
+++ b/data/test/GEP00009.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="281">
   <si>
     <t>project_type</t>
   </si>
@@ -986,7 +986,286 @@
     <t>NB. Orange tabs, tables and columns need to be filled, green ones are optionals.</t>
   </si>
   <si>
-    <t>plate_02</t>
+    <t>plate_01</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1384,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1149,6 +1428,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,17 +1555,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1345,6 +1634,11 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1414,10 +1708,1166 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
   <dxfs count="114">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1659,19 +3109,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1737,6 +3174,19 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2158,1157 +3608,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -3349,9 +3648,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table263" displayName="Table263" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="42"/>
-    <tableColumn id="2" name="Column names" dataDxfId="41"/>
-    <tableColumn id="3" name="Description" dataDxfId="40"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
+    <tableColumn id="2" name="Column names" dataDxfId="112"/>
+    <tableColumn id="3" name="Description" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3360,129 +3659,129 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table5072" displayName="Table5072" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="76" dataDxfId="75"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="72" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="113"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="112"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="111"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="110"/>
-    <tableColumn id="5" name="target_start" dataDxfId="109"/>
-    <tableColumn id="6" name="target_end" dataDxfId="108"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="107"/>
+    <tableColumn id="1" name="target_name" dataDxfId="68"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="67"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="66"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="65"/>
+    <tableColumn id="5" name="target_start" dataDxfId="64"/>
+    <tableColumn id="6" name="target_end" dataDxfId="63"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="61">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="104"/>
+    <tableColumn id="1" name="target_description" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="102"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="101"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="100"/>
+    <tableColumn id="1" name="target_name" dataDxfId="57"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="56"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="97"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="96"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="95"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="94"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="52"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="51"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="50"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="91"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="90"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="89"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="88"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="87"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="86"/>
-    <tableColumn id="7" name="chrom" dataDxfId="85"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="84"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="83"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="82"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="81"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="80"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="79"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="46"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
+    <tableColumn id="7" name="chrom" dataDxfId="40"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="76"/>
-    <tableColumn id="2" name="description" dataDxfId="75"/>
+    <tableColumn id="1" name="score" dataDxfId="31"/>
+    <tableColumn id="2" name="description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="60"/>
-    <tableColumn id="2" name="well_position" dataDxfId="59"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="58"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="57"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="1"/>
+    <tableColumn id="2" name="well_position" dataDxfId="0"/>
+    <tableColumn id="6" name="guide_name" dataDxfId="27"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="54"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="53"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="52"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="51"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="50"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="49"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="48"/>
-    <tableColumn id="8" name="content_type" dataDxfId="47"/>
-    <tableColumn id="9" name="is_control" dataDxfId="46"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="45"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="23"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="22"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="21"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="20"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="19"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="18"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="17"/>
+    <tableColumn id="8" name="content_type" dataDxfId="16"/>
+    <tableColumn id="9" name="is_control" dataDxfId="15"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="66"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="65"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="64"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="63"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="11"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="10"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="9"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3491,21 +3790,21 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table364" displayName="Table364" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="39"/>
-    <tableColumn id="2" name="Column names" dataDxfId="38"/>
-    <tableColumn id="3" name="Description" dataDxfId="37"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
+    <tableColumn id="2" name="Column names" dataDxfId="109"/>
+    <tableColumn id="3" name="Description" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="72"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="71"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="70"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="69"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="5"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="4"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="3"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3514,9 +3813,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Table465" displayName="Table465" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="36"/>
-    <tableColumn id="2" name="Column names" dataDxfId="35"/>
-    <tableColumn id="3" name="Description" dataDxfId="34"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
+    <tableColumn id="2" name="Column names" dataDxfId="106"/>
+    <tableColumn id="3" name="Description" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3525,9 +3824,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table566" displayName="Table566" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="33"/>
-    <tableColumn id="2" name="Column names" dataDxfId="32"/>
-    <tableColumn id="3" name="Description" dataDxfId="31"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
+    <tableColumn id="2" name="Column names" dataDxfId="103"/>
+    <tableColumn id="3" name="Description" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3536,9 +3835,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table667" displayName="Table667" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="30"/>
-    <tableColumn id="2" name="Column names" dataDxfId="29"/>
-    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
+    <tableColumn id="2" name="Column names" dataDxfId="100"/>
+    <tableColumn id="3" name="Description" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3547,9 +3846,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table768" displayName="Table768" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="27"/>
-    <tableColumn id="2" name="Column names" dataDxfId="26"/>
-    <tableColumn id="3" name="Description" dataDxfId="25"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="98"/>
+    <tableColumn id="2" name="Column names" dataDxfId="97"/>
+    <tableColumn id="3" name="Description" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3558,20 +3857,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table4769" displayName="Table4769" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="24" dataDxfId="23"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="22" dataDxfId="21"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="20" dataDxfId="19"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Table4870" displayName="Table4870" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="12" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Table4870" displayName="Table4870" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="89" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="18" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="16" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="14" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3580,9 +3879,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table4971" displayName="Table4971" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3924,28 +4223,28 @@
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="27">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="27">
+      <c r="A1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="19">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="15">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>129</v>
       </c>
@@ -3964,8 +4263,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:3">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3973,8 +4271,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:3">
       <c r="B7" s="6" t="s">
         <v>183</v>
       </c>
@@ -3982,8 +4279,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:3">
       <c r="B8" s="6" t="s">
         <v>181</v>
       </c>
@@ -3991,8 +4287,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:3">
       <c r="B9" s="6" t="s">
         <v>180</v>
       </c>
@@ -4000,8 +4295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:3">
       <c r="B10" s="6" t="s">
         <v>179</v>
       </c>
@@ -4009,8 +4303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:3">
       <c r="B11" s="6" t="s">
         <v>178</v>
       </c>
@@ -4018,8 +4311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="5" customFormat="1">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:3">
       <c r="B12" s="6" t="s">
         <v>177</v>
       </c>
@@ -4027,7 +4319,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="15">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>176</v>
@@ -4047,7 +4339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -4056,8 +4348,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="5" customFormat="1">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:3">
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
@@ -4065,8 +4356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:3">
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
@@ -4074,8 +4364,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:3">
       <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
@@ -4083,8 +4372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:3">
       <c r="B19" s="6" t="s">
         <v>171</v>
       </c>
@@ -4092,8 +4380,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:3">
       <c r="B20" s="6" t="s">
         <v>169</v>
       </c>
@@ -4101,8 +4388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:3">
       <c r="B21" s="6" t="s">
         <v>167</v>
       </c>
@@ -4110,8 +4396,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:3">
       <c r="B22" s="6" t="s">
         <v>165</v>
       </c>
@@ -4119,7 +4404,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>129</v>
       </c>
@@ -4130,7 +4415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" ht="30">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" s="4" t="s">
         <v>130</v>
       </c>
@@ -4138,8 +4423,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:3">
       <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
@@ -4147,8 +4431,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="5" customFormat="1">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:3">
       <c r="B26" s="6" t="s">
         <v>9</v>
       </c>
@@ -4156,8 +4439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:3">
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
@@ -4165,8 +4447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:3">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -4174,8 +4455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:3">
       <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
@@ -4183,8 +4463,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:3">
       <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
@@ -4192,8 +4471,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:3">
       <c r="B31" s="6" t="s">
         <v>160</v>
       </c>
@@ -4201,8 +4479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:3">
       <c r="B32" s="6" t="s">
         <v>15</v>
       </c>
@@ -4210,8 +4487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:3">
       <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
@@ -4219,8 +4495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1">
-      <c r="A34" s="4"/>
+    <row r="34" spans="1:3">
       <c r="B34" s="6" t="s">
         <v>17</v>
       </c>
@@ -4228,8 +4503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:3">
       <c r="B35" s="6" t="s">
         <v>18</v>
       </c>
@@ -4246,8 +4520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="5" customFormat="1">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:3">
       <c r="B37" s="6" t="s">
         <v>20</v>
       </c>
@@ -4255,7 +4528,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" ht="15">
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +4537,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" ht="15">
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
@@ -4271,7 +4546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="5" customFormat="1">
+    <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
         <v>129</v>
       </c>
@@ -4282,7 +4557,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" ht="30">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -4290,8 +4565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:3">
       <c r="B42" s="6" t="s">
         <v>155</v>
       </c>
@@ -4308,8 +4582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="5" customFormat="1">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:3">
       <c r="B44" s="6" t="s">
         <v>5</v>
       </c>
@@ -4317,8 +4590,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:3">
       <c r="B45" s="6" t="s">
         <v>31</v>
       </c>
@@ -4326,8 +4598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:3">
       <c r="B46" s="6" t="s">
         <v>127</v>
       </c>
@@ -4335,8 +4606,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="5" customFormat="1">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:3">
       <c r="B47" s="6" t="s">
         <v>126</v>
       </c>
@@ -4344,8 +4614,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="5" customFormat="1">
-      <c r="A48" s="4"/>
+    <row r="48" spans="1:3">
       <c r="B48" s="6" t="s">
         <v>32</v>
       </c>
@@ -4353,8 +4622,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1">
-      <c r="A49" s="4"/>
+    <row r="49" spans="1:3">
       <c r="B49" s="6" t="s">
         <v>128</v>
       </c>
@@ -4362,8 +4630,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1">
-      <c r="A50" s="4"/>
+    <row r="50" spans="1:3">
       <c r="B50" s="6" t="s">
         <v>22</v>
       </c>
@@ -4371,8 +4638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="5" customFormat="1">
-      <c r="A51" s="4"/>
+    <row r="51" spans="1:3">
       <c r="B51" s="6" t="s">
         <v>24</v>
       </c>
@@ -4380,8 +4646,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="5" customFormat="1">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:3">
       <c r="B52" s="6" t="s">
         <v>23</v>
       </c>
@@ -4389,8 +4654,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="5" customFormat="1">
-      <c r="A53" s="4"/>
+    <row r="53" spans="1:3">
       <c r="B53" s="6" t="s">
         <v>27</v>
       </c>
@@ -4398,57 +4662,49 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1">
-      <c r="A54" s="4"/>
+    <row r="54" spans="1:3">
       <c r="B54" s="6"/>
       <c r="C54" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1">
-      <c r="A55" s="4"/>
+    <row r="55" spans="1:3">
       <c r="B55" s="6"/>
       <c r="C55" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="5" customFormat="1">
-      <c r="A56" s="4"/>
+    <row r="56" spans="1:3">
       <c r="B56" s="6"/>
       <c r="C56" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:3">
       <c r="B57" s="6"/>
       <c r="C57" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="A58" s="4"/>
+    <row r="58" spans="1:3">
       <c r="B58" s="6"/>
       <c r="C58" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="5" customFormat="1">
-      <c r="A59" s="4"/>
+    <row r="59" spans="1:3">
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1">
-      <c r="A60" s="4"/>
+    <row r="60" spans="1:3">
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1">
-      <c r="A61" s="4"/>
+    <row r="61" spans="1:3">
       <c r="B61" s="6" t="s">
         <v>26</v>
       </c>
@@ -4456,8 +4712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="A62" s="4"/>
+    <row r="62" spans="1:3">
       <c r="B62" s="6" t="s">
         <v>25</v>
       </c>
@@ -4465,7 +4720,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="5" customFormat="1">
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
@@ -4476,7 +4731,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" ht="30" customHeight="1">
+    <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -4484,8 +4739,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:3">
       <c r="B65" s="6" t="s">
         <v>140</v>
       </c>
@@ -4493,8 +4747,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:3">
       <c r="B66" s="6" t="s">
         <v>138</v>
       </c>
@@ -4502,8 +4755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="5" customFormat="1">
-      <c r="A67" s="4"/>
+    <row r="67" spans="1:3">
       <c r="B67" s="6" t="s">
         <v>28</v>
       </c>
@@ -4511,8 +4763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="A68" s="4"/>
+    <row r="68" spans="1:3">
       <c r="B68" s="6" t="s">
         <v>135</v>
       </c>
@@ -4520,7 +4771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1">
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
         <v>129</v>
       </c>
@@ -4531,7 +4782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" ht="30" customHeight="1">
+    <row r="70" spans="1:3" ht="30" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
@@ -4539,8 +4790,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1">
-      <c r="A71" s="4"/>
+    <row r="71" spans="1:3">
       <c r="B71" s="6" t="s">
         <v>5</v>
       </c>
@@ -4548,8 +4798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1">
-      <c r="A72" s="4"/>
+    <row r="72" spans="1:3">
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
@@ -4557,8 +4806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1">
-      <c r="A73" s="4"/>
+    <row r="73" spans="1:3">
       <c r="B73" s="6" t="s">
         <v>7</v>
       </c>
@@ -4566,8 +4814,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1">
-      <c r="A74" s="4"/>
+    <row r="74" spans="1:3">
       <c r="B74" s="6" t="s">
         <v>8</v>
       </c>
@@ -5183,10 +5430,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5256,40 +5503,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5297,40 +5511,7 @@
         <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5338,44 +5519,855 @@
         <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K67" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L67" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="5" t="b">
+      <c r="M67" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N67" s="5">
         <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -5393,37 +6385,37 @@
           <x14:formula1>
             <xm:f>[1]Menus!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K1048576</xm:sqref>
+          <xm:sqref>K5:K15 K17:K44 K46:K66 K68:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$H$2:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F4</xm:sqref>
+          <xm:sqref>F2:F4 F16 F45 F67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$I$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
+          <xm:sqref>G2:G4 G16 G45 G67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I4</xm:sqref>
+          <xm:sqref>I2:I4 I16 I45 I67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$G$2:$G$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L4</xm:sqref>
+          <xm:sqref>L2:L4 L16 L45 L67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M4</xm:sqref>
+          <xm:sqref>M2:M4 M16 M45 M67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/test/GEP00009.xlsx
+++ b/data/test/GEP00009.xlsx
@@ -1384,7 +1384,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1428,6 +1428,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1565,7 +1573,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1639,6 +1647,10 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1713,12 +1725,98 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
   <dxfs count="114">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1753,59 +1851,45 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1920,6 +2004,108 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1955,176 +2141,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3748,40 +3764,40 @@
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="1"/>
-    <tableColumn id="2" name="well_position" dataDxfId="0"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="27"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="26"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
+    <tableColumn id="2" name="well_position" dataDxfId="26"/>
+    <tableColumn id="6" name="guide_name" dataDxfId="25"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="23"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="22"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="21"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="20"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="19"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="18"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="17"/>
-    <tableColumn id="8" name="content_type" dataDxfId="16"/>
-    <tableColumn id="9" name="is_control" dataDxfId="15"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="14"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
+    <tableColumn id="8" name="content_type" dataDxfId="14"/>
+    <tableColumn id="9" name="is_control" dataDxfId="13"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="11"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="10"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="9"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="8"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3799,12 +3815,12 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="5"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="4"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="3"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="2"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4859,7 +4875,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5188,7 +5204,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5433,7 +5449,7 @@
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:N4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/test/GEP00009.xlsx
+++ b/data/test/GEP00009.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="279">
   <si>
     <t>project_type</t>
   </si>
@@ -382,9 +382,6 @@
     <t>CCT</t>
   </si>
   <si>
-    <t>small mutation</t>
-  </si>
-  <si>
     <t>TCCAGGGCGAGGGATCTAC</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
   </si>
   <si>
     <t>Template preparation [Hotshot extracted gDNA from HUES9 POMC GFP 10H cell line,  use 6ul for PCR]. PCR mix composition [1 U FastStart (Roche), 200 uM dNTPs, 0.1 uM each primer, 4.5 mM MgCl2, 10 ng gDNA), amplification protocol (95C 2min, 40x (95C 20s, 64.4C 20s, 72C 15s), 72C 3 min for gDNA)]</t>
-  </si>
-  <si>
-    <t>Knock-out</t>
   </si>
   <si>
     <t>CCATGCCCGTGTGTG</t>
@@ -1272,7 +1266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1357,16 +1351,27 @@
       <name val="Cambria"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FFFDE9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1383,6 +1388,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF79646"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF79646"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF79646"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF79646"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1543,7 +1563,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1572,6 +1592,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4227,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -4241,28 +4262,28 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27">
       <c r="A1" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="19">
       <c r="A2" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>70</v>
@@ -4276,7 +4297,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4284,28 +4305,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>65</v>
@@ -4313,7 +4334,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>66</v>
@@ -4321,7 +4342,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>67</v>
@@ -4329,7 +4350,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>68</v>
@@ -4338,15 +4359,15 @@
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="12" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>70</v>
@@ -4361,7 +4382,7 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4369,7 +4390,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4377,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4390,39 +4411,39 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>70</v>
@@ -4433,7 +4454,7 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>74</v>
@@ -4444,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4476,7 +4497,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4484,12 +4505,12 @@
         <v>14</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>78</v>
@@ -4550,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
@@ -4559,12 +4580,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>70</v>
@@ -4575,18 +4596,18 @@
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="10" customFormat="1">
@@ -4603,7 +4624,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4611,23 +4632,23 @@
         <v>31</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4635,15 +4656,15 @@
         <v>32</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4651,7 +4672,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4659,7 +4680,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4667,7 +4688,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4675,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4725,7 +4746,7 @@
         <v>26</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4733,12 +4754,12 @@
         <v>25</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>70</v>
@@ -4752,23 +4773,23 @@
         <v>63</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4776,20 +4797,20 @@
         <v>28</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>70</v>
@@ -4895,25 +4916,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="15">
@@ -5119,16 +5140,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5203,8 +5224,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5252,7 +5273,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>15</v>
@@ -5283,8 +5304,8 @@
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>107</v>
+      <c r="B2" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="5">
         <v>53704225</v>
@@ -5302,7 +5323,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I2" s="5">
         <v>53704130</v>
@@ -5311,7 +5332,7 @@
         <v>53704148</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" s="5">
         <v>53704291</v>
@@ -5320,7 +5341,7 @@
         <v>53704310</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5328,7 +5349,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5">
         <v>54931241</v>
@@ -5346,7 +5367,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I3" s="5">
         <v>54931181</v>
@@ -5355,7 +5376,7 @@
         <v>54931195</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L3" s="5">
         <v>54931377</v>
@@ -5364,7 +5385,7 @@
         <v>54931395</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5472,7 +5493,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -5487,13 +5508,13 @@
         <v>32</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>22</v>
@@ -5516,131 +5537,131 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>51</v>
@@ -5649,13 +5670,13 @@
         <v>53</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>47</v>
@@ -5669,243 +5690,243 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>51</v>
@@ -5914,13 +5935,13 @@
         <v>53</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>93</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>47</v>
@@ -5934,187 +5955,187 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>51</v>
@@ -6123,13 +6144,13 @@
         <v>53</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>93</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>47</v>
@@ -6143,242 +6164,242 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6462,16 +6483,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/test/GEP00009.xlsx
+++ b/data/test/GEP00009.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="279">
   <si>
     <t>project_type</t>
   </si>
@@ -1583,6 +1583,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1592,7 +1593,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1753,7 +1753,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="113">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2128,23 +2128,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3685,9 +3668,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table263" displayName="Table263" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
-    <tableColumn id="2" name="Column names" dataDxfId="112"/>
-    <tableColumn id="3" name="Description" dataDxfId="111"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
+    <tableColumn id="2" name="Column names" dataDxfId="111"/>
+    <tableColumn id="3" name="Description" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3696,98 +3679,97 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table5072" displayName="Table5072" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="76" dataDxfId="75"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="71" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="68"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="67"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="66"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="65"/>
-    <tableColumn id="5" name="target_start" dataDxfId="64"/>
-    <tableColumn id="6" name="target_end" dataDxfId="63"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="62"/>
+    <tableColumn id="1" name="target_name" dataDxfId="67"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="66"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="65"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="64"/>
+    <tableColumn id="5" name="target_start" dataDxfId="63"/>
+    <tableColumn id="6" name="target_end" dataDxfId="62"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="60">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="60"/>
+    <tableColumn id="1" name="target_description" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="57"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="56"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="55"/>
+    <tableColumn id="1" name="target_name" dataDxfId="56"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="55"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="52"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="51"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="50"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="49"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="51"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="50"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="49"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="46"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
-    <tableColumn id="7" name="chrom" dataDxfId="40"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="45"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="44"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="43"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="42"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="41"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="40"/>
+    <tableColumn id="7" name="chrom" dataDxfId="39"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="38"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="37"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="36"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="35"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="34"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="31"/>
-    <tableColumn id="2" name="description" dataDxfId="30"/>
+    <tableColumn id="1" name="score" dataDxfId="30"/>
+    <tableColumn id="2" name="description" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
-    <tableColumn id="2" name="well_position" dataDxfId="26"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <tableColumns count="3">
+    <tableColumn id="1" name="layout_id" dataDxfId="26"/>
+    <tableColumn id="2" name="well_position" dataDxfId="25"/>
     <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3795,7 +3777,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="10">
     <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
     <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
@@ -3827,9 +3809,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table364" displayName="Table364" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
-    <tableColumn id="2" name="Column names" dataDxfId="109"/>
-    <tableColumn id="3" name="Description" dataDxfId="108"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
+    <tableColumn id="2" name="Column names" dataDxfId="108"/>
+    <tableColumn id="3" name="Description" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3850,9 +3832,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Table465" displayName="Table465" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
-    <tableColumn id="2" name="Column names" dataDxfId="106"/>
-    <tableColumn id="3" name="Description" dataDxfId="105"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
+    <tableColumn id="2" name="Column names" dataDxfId="105"/>
+    <tableColumn id="3" name="Description" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3861,9 +3843,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table566" displayName="Table566" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
-    <tableColumn id="2" name="Column names" dataDxfId="103"/>
-    <tableColumn id="3" name="Description" dataDxfId="102"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="103"/>
+    <tableColumn id="2" name="Column names" dataDxfId="102"/>
+    <tableColumn id="3" name="Description" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3872,9 +3854,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table667" displayName="Table667" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
-    <tableColumn id="2" name="Column names" dataDxfId="100"/>
-    <tableColumn id="3" name="Description" dataDxfId="99"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="100"/>
+    <tableColumn id="2" name="Column names" dataDxfId="99"/>
+    <tableColumn id="3" name="Description" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3883,9 +3865,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table768" displayName="Table768" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="98"/>
-    <tableColumn id="2" name="Column names" dataDxfId="97"/>
-    <tableColumn id="3" name="Description" dataDxfId="96"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="97"/>
+    <tableColumn id="2" name="Column names" dataDxfId="96"/>
+    <tableColumn id="3" name="Description" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3894,20 +3876,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table4769" displayName="Table4769" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="90" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Table4870" displayName="Table4870" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="89" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Table4870" displayName="Table4870" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="88" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="83" dataDxfId="82" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3916,9 +3898,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table4971" displayName="Table4971" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="77" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4261,25 +4243,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
@@ -5224,7 +5206,7 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5304,7 +5286,7 @@
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="5">
@@ -5467,31 +5449,30 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>153</v>
       </c>
@@ -5499,43 +5480,40 @@
         <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>185</v>
       </c>
@@ -5543,7 +5521,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>185</v>
       </c>
@@ -5551,7 +5529,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>185</v>
       </c>
@@ -5559,7 +5537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>185</v>
       </c>
@@ -5567,7 +5545,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>185</v>
       </c>
@@ -5575,7 +5553,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>185</v>
       </c>
@@ -5583,7 +5561,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
         <v>185</v>
       </c>
@@ -5591,7 +5569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>185</v>
       </c>
@@ -5599,7 +5577,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
         <v>185</v>
       </c>
@@ -5607,7 +5585,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>185</v>
       </c>
@@ -5615,7 +5593,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
         <v>185</v>
       </c>
@@ -5623,7 +5601,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>185</v>
       </c>
@@ -5631,7 +5609,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>185</v>
       </c>
@@ -5639,7 +5617,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>185</v>
       </c>
@@ -5647,7 +5625,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -5655,36 +5633,33 @@
         <v>114</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="J16" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="5" t="b">
+      <c r="L16" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N16" s="5">
+      <c r="M16" s="5">
         <v>15</v>
       </c>
     </row>
@@ -5816,7 +5791,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
         <v>185</v>
       </c>
@@ -5824,7 +5799,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
         <v>185</v>
       </c>
@@ -5832,7 +5807,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
         <v>185</v>
       </c>
@@ -5840,7 +5815,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
         <v>185</v>
       </c>
@@ -5848,7 +5823,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
         <v>185</v>
       </c>
@@ -5856,7 +5831,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
         <v>185</v>
       </c>
@@ -5864,7 +5839,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
         <v>185</v>
       </c>
@@ -5872,7 +5847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
         <v>185</v>
       </c>
@@ -5880,7 +5855,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
         <v>185</v>
       </c>
@@ -5888,7 +5863,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
         <v>185</v>
       </c>
@@ -5896,7 +5871,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
         <v>185</v>
       </c>
@@ -5904,7 +5879,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
         <v>185</v>
       </c>
@@ -5912,7 +5887,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
         <v>185</v>
       </c>
@@ -5920,40 +5895,37 @@
         <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="J45" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M45" s="5" t="b">
+      <c r="L45" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N45" s="5">
+      <c r="M45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
         <v>185</v>
       </c>
@@ -5961,7 +5933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
         <v>185</v>
       </c>
@@ -5969,7 +5941,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
         <v>185</v>
       </c>
@@ -6105,7 +6077,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
         <v>185</v>
       </c>
@@ -6113,7 +6085,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
         <v>185</v>
       </c>
@@ -6121,7 +6093,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
         <v>185</v>
       </c>
@@ -6129,40 +6101,37 @@
         <v>116</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I67" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="J67" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="K67" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L67" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M67" s="5" t="b">
+      <c r="L67" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="N67" s="5">
+      <c r="M67" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
         <v>185</v>
       </c>
@@ -6170,7 +6139,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
         <v>185</v>
       </c>
@@ -6178,7 +6147,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
         <v>185</v>
       </c>
@@ -6186,7 +6155,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
         <v>185</v>
       </c>
@@ -6194,7 +6163,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
         <v>185</v>
       </c>
@@ -6202,7 +6171,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
         <v>185</v>
       </c>
@@ -6210,7 +6179,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
         <v>185</v>
       </c>
@@ -6218,7 +6187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
         <v>185</v>
       </c>
@@ -6226,7 +6195,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
         <v>185</v>
       </c>
@@ -6234,7 +6203,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
         <v>185</v>
       </c>
@@ -6242,7 +6211,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
         <v>185</v>
       </c>
@@ -6250,7 +6219,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
         <v>185</v>
       </c>
@@ -6258,7 +6227,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
         <v>185</v>
       </c>
@@ -6411,48 +6380,42 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Menus!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Menus!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K5:K15 K17:K44 K46:K66 K68:K1048576</xm:sqref>
+          <xm:sqref>I2:I1048576 J5:J15 J17:J44 J46:J66 J68:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$H$2:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F4 F16 F45 F67</xm:sqref>
+          <xm:sqref>E2:E4 E16 E45 E67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$I$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G4 G16 G45 G67</xm:sqref>
+          <xm:sqref>F2:F4 F16 F45 F67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I4 I16 I45 I67</xm:sqref>
+          <xm:sqref>H2:H4 H16 H45 H67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$G$2:$G$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L4 L16 L45 L67</xm:sqref>
+          <xm:sqref>K2:K4 K16 K45 K67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M4 M16 M45 M67</xm:sqref>
+          <xm:sqref>L2:L4 L16 L45 L67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
